--- a/ref/ingestion/calibrated/chile/model_input_variables_chile_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/chile/model_input_variables_chile_ip_calibrated.xlsx
@@ -15283,112 +15283,112 @@
         <v>0.8</v>
       </c>
       <c r="J114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="K114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="L114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="M114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="N114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="O114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="P114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="Q114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="R114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="S114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="T114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="U114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="V114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="W114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="X114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="Y114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="Z114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="AA114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="AB114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="AC114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="AD114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="AE114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="AF114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="AG114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="AH114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="AI114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="AJ114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="AK114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="AL114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="AM114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="AN114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="AO114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="AP114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="AQ114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="AR114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
       <c r="AS114" t="n">
-        <v>559893625.5</v>
+        <v>14809.30166</v>
       </c>
     </row>
     <row r="115">

--- a/ref/ingestion/calibrated/chile/model_input_variables_chile_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/chile/model_input_variables_chile_ip_calibrated.xlsx
@@ -13449,112 +13449,112 @@
         <v>0.8</v>
       </c>
       <c r="J100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="K100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="L100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="M100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="N100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="O100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="P100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="Q100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="R100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="S100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="T100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="U100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="V100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="W100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="X100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="Y100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="Z100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="AA100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="AB100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="AC100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="AD100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="AE100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="AF100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="AG100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="AH100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="AI100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="AJ100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="AK100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="AL100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="AM100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="AN100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="AO100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="AP100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="AQ100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="AR100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
       <c r="AS100" t="n">
-        <v>6471806.169</v>
+        <v>845371.875</v>
       </c>
     </row>
     <row r="101">
@@ -13580,112 +13580,112 @@
         <v>0.8</v>
       </c>
       <c r="J101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="K101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="L101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="M101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="N101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="O101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="P101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="Q101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="R101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="S101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="T101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="U101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="V101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="W101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="X101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="Y101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="Z101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="AA101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="AB101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="AC101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="AD101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="AE101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="AF101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="AG101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="AH101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="AI101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="AJ101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="AK101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="AL101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="AM101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="AN101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="AO101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="AP101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="AQ101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="AR101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
       <c r="AS101" t="n">
-        <v>18601696.28</v>
+        <v>1860169.628</v>
       </c>
     </row>
     <row r="102">
@@ -13842,112 +13842,112 @@
         <v>0.8</v>
       </c>
       <c r="J103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="K103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="L103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="M103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="N103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="O103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="P103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="Q103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="R103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="S103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="T103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="U103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="V103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="W103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="X103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="Y103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="Z103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="AA103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="AB103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="AC103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="AD103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="AE103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="AF103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="AG103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="AH103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="AI103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="AJ103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="AK103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="AL103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="AM103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="AN103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="AO103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="AP103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="AQ103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="AR103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
       <c r="AS103" t="n">
-        <v>590746.1708</v>
+        <v>581443.97</v>
       </c>
     </row>
     <row r="104">
@@ -14104,112 +14104,112 @@
         <v>0.8</v>
       </c>
       <c r="J105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="K105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="L105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="M105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="N105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="O105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="P105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="Q105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="R105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="S105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="T105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="U105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="V105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="W105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="X105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="Y105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="Z105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="AA105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="AB105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="AC105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="AD105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="AE105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="AF105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="AG105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="AH105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="AI105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="AJ105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="AK105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="AL105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="AM105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="AN105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="AO105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="AP105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="AQ105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="AR105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
       <c r="AS105" t="n">
-        <v>1723732.122</v>
+        <v>448170.3517</v>
       </c>
     </row>
     <row r="106">
@@ -14235,112 +14235,112 @@
         <v>0.8</v>
       </c>
       <c r="J106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="K106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="L106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="M106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="N106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="O106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="P106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="Q106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="R106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="S106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="T106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="U106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="V106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="W106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="X106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="Y106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="Z106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="AA106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="AB106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="AC106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="AD106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="AE106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="AF106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="AG106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="AH106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="AI106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="AJ106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="AK106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="AL106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="AM106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="AN106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="AO106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="AP106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="AQ106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="AR106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
       <c r="AS106" t="n">
-        <v>5918399.597</v>
+        <v>64414.5303</v>
       </c>
     </row>
     <row r="107">
@@ -14366,112 +14366,112 @@
         <v>0.8</v>
       </c>
       <c r="J107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="K107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="L107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="M107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="N107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="O107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="P107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="Q107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="R107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="S107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="T107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="U107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="V107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="W107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="X107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="Y107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="Z107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="AA107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="AB107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="AC107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="AD107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="AE107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="AF107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="AG107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="AH107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="AI107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="AJ107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="AK107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="AL107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="AM107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="AN107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="AO107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="AP107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="AQ107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="AR107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
       <c r="AS107" t="n">
-        <v>694188.5246</v>
+        <v>1388377.049</v>
       </c>
     </row>
     <row r="108">
@@ -15414,112 +15414,112 @@
         <v>0.8</v>
       </c>
       <c r="J115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="K115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="L115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="M115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="N115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="O115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="P115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="Q115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="R115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="S115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="T115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="U115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="V115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="W115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="X115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="Y115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="Z115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="AA115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="AB115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="AC115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="AD115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="AE115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="AF115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="AG115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="AH115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="AI115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="AJ115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="AK115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="AL115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="AM115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="AN115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="AO115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="AP115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="AQ115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="AR115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
       <c r="AS115" t="n">
-        <v>255218.025</v>
+        <v>2552180.25</v>
       </c>
     </row>
     <row r="116">

--- a/ref/ingestion/calibrated/chile/model_input_variables_chile_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/chile/model_input_variables_chile_ip_calibrated.xlsx
@@ -12476,112 +12476,112 @@
         <v>1</v>
       </c>
       <c r="J96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="K96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="L96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="M96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="N96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="O96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="P96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="Q96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="R96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="S96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="T96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="U96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="V96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="W96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="X96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="Y96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="Z96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="AA96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="AB96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="AC96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="AD96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="AE96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="AF96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="AG96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="AH96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="AI96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="AJ96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="AK96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="AL96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="AM96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="AN96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="AO96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="AP96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="AQ96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="AR96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
       <c r="AS96">
-        <v>845371.875</v>
+        <v>9288329.044</v>
       </c>
     </row>
     <row r="97" spans="1:45">
@@ -12598,112 +12598,112 @@
         <v>1</v>
       </c>
       <c r="J97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="K97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="L97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="M97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="N97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="O97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="P97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="Q97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="R97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="S97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="T97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="U97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="V97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="W97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="X97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="Y97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="Z97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="AA97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="AB97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="AC97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="AD97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="AE97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="AF97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="AG97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="AH97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="AI97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="AJ97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="AK97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="AL97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="AM97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="AN97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="AO97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="AP97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="AQ97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="AR97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
       <c r="AS97">
-        <v>1860169.628</v>
+        <v>1856357.96</v>
       </c>
     </row>
     <row r="98" spans="1:45">
@@ -12720,112 +12720,112 @@
         <v>1</v>
       </c>
       <c r="J98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="K98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="L98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="M98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="N98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="O98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="P98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="Q98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="R98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="S98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="T98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="U98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="V98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="W98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="X98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="Y98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="Z98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="AA98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="AB98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="AC98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="AD98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="AE98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="AF98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="AG98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="AH98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="AI98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="AJ98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="AK98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="AL98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="AM98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="AN98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="AO98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="AP98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="AQ98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="AR98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
       <c r="AS98">
-        <v>585586.6391</v>
+        <v>744216.8137000001</v>
       </c>
     </row>
     <row r="99" spans="1:45">
@@ -12842,112 +12842,112 @@
         <v>1</v>
       </c>
       <c r="J99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="K99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="L99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="M99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="N99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="O99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="P99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="Q99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="R99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="S99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="T99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="U99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="V99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="W99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="X99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="Y99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="Z99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="AA99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="AB99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="AC99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="AD99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="AE99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="AF99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="AG99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="AH99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="AI99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="AJ99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="AK99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="AL99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="AM99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="AN99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="AO99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="AP99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="AQ99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="AR99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
       <c r="AS99">
-        <v>581443.97</v>
+        <v>54560.23073</v>
       </c>
     </row>
     <row r="100" spans="1:45">
@@ -12964,112 +12964,112 @@
         <v>1</v>
       </c>
       <c r="J100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="K100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="L100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="M100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="N100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="O100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="P100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="Q100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="R100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="S100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="T100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="U100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="V100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="W100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="X100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="Y100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="Z100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="AA100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="AB100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="AC100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="AD100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="AE100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="AF100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="AG100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="AH100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="AI100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="AJ100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="AK100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="AL100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="AM100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="AN100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="AO100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="AP100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="AQ100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="AR100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
       <c r="AS100">
-        <v>650286.0577</v>
+        <v>1680518.694</v>
       </c>
     </row>
     <row r="101" spans="1:45">
@@ -13086,112 +13086,112 @@
         <v>1</v>
       </c>
       <c r="J101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="K101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="L101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="M101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="N101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="O101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="P101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="Q101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="R101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="S101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="T101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="U101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="V101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="W101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="X101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="Y101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="Z101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="AA101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="AB101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="AC101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="AD101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="AE101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="AF101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="AG101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="AH101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="AI101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="AJ101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="AK101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="AL101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="AM101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="AN101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="AO101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="AP101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="AQ101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="AR101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
       <c r="AS101">
-        <v>448170.3517</v>
+        <v>15173145.3</v>
       </c>
     </row>
     <row r="102" spans="1:45">
@@ -13330,112 +13330,112 @@
         <v>1</v>
       </c>
       <c r="J103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="K103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="L103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="M103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="N103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="O103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="P103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="Q103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="R103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="S103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="T103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="U103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="V103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="W103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="X103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="Y103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="Z103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="AA103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="AB103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="AC103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="AD103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="AE103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="AF103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="AG103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="AH103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="AI103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="AJ103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="AK103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="AL103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="AM103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="AN103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="AO103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="AP103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="AQ103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="AR103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
       <c r="AS103">
-        <v>64414.5303</v>
+        <v>1423204.72</v>
       </c>
     </row>
     <row r="104" spans="1:45">
@@ -13452,112 +13452,112 @@
         <v>1</v>
       </c>
       <c r="J104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="K104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="L104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="M104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="N104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="O104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="P104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="Q104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="R104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="S104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="T104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="U104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="V104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="W104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="X104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="Y104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="Z104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="AA104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="AB104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="AC104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="AD104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="AE104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="AF104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="AG104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="AH104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="AI104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="AJ104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="AK104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="AL104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="AM104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="AN104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="AO104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="AP104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="AQ104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="AR104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
       <c r="AS104">
-        <v>1388377.049</v>
+        <v>752788.9917</v>
       </c>
     </row>
     <row r="105" spans="1:45">
@@ -14306,112 +14306,112 @@
         <v>1</v>
       </c>
       <c r="J111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="K111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="L111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="M111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="N111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="O111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="P111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="Q111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="R111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="S111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="T111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="U111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="V111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="W111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="X111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="Y111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="Z111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="AA111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="AB111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="AC111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="AD111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="AE111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="AF111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="AG111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="AH111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="AI111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="AJ111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="AK111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="AL111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="AM111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="AN111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="AO111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="AP111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="AQ111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="AR111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
       <c r="AS111">
-        <v>14809.30166</v>
+        <v>52831.46011</v>
       </c>
     </row>
     <row r="112" spans="1:45">
@@ -14428,112 +14428,112 @@
         <v>1</v>
       </c>
       <c r="J112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="K112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="L112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="M112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="N112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="O112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="P112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="Q112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="R112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="S112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="T112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="U112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="V112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="W112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="X112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="Y112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="Z112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="AA112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="AB112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="AC112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="AD112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="AE112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="AF112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="AG112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="AH112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="AI112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="AJ112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="AK112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="AL112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="AM112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="AN112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="AO112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="AP112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="AQ112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="AR112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
       <c r="AS112">
-        <v>2552180.25</v>
+        <v>214809.8038</v>
       </c>
     </row>
     <row r="113" spans="1:45">

--- a/ref/ingestion/calibrated/chile/model_input_variables_chile_ip_calibrated.xlsx
+++ b/ref/ingestion/calibrated/chile/model_input_variables_chile_ip_calibrated.xlsx
@@ -16069,112 +16069,112 @@
         <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>4410000</v>
+        <v>4320000</v>
       </c>
       <c r="K120" t="n">
-        <v>4410000</v>
+        <v>4310000</v>
       </c>
       <c r="L120" t="n">
-        <v>4410000</v>
+        <v>4000000</v>
       </c>
       <c r="M120" t="n">
-        <v>4410000</v>
+        <v>4750000</v>
       </c>
       <c r="N120" t="n">
-        <v>4410000</v>
+        <v>5030000</v>
       </c>
       <c r="O120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="P120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="Q120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="R120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="S120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="T120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="U120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="V120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="W120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="X120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="Y120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="Z120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="AA120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="AB120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="AC120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="AD120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="AE120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="AF120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="AG120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="AH120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="AI120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="AJ120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="AK120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="AL120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="AM120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="AN120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="AO120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="AP120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="AQ120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="AR120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
       <c r="AS120" t="n">
-        <v>4410000</v>
+        <v>4280000</v>
       </c>
     </row>
     <row r="121">
@@ -16200,112 +16200,112 @@
         <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>1189132.8833831</v>
+        <v>1715363.78769978</v>
       </c>
       <c r="K121" t="n">
-        <v>1189132.8833831</v>
+        <v>1809594.04616983</v>
       </c>
       <c r="L121" t="n">
-        <v>1189132.8833831</v>
+        <v>2050466.00805584</v>
       </c>
       <c r="M121" t="n">
-        <v>1189132.8833831</v>
+        <v>2070857.60296403</v>
       </c>
       <c r="N121" t="n">
-        <v>1189132.8833831</v>
+        <v>2170375.02054607</v>
       </c>
       <c r="O121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="P121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="Q121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="R121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="S121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="T121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="U121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="V121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="W121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="X121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="Y121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="Z121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="AA121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="AB121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="AC121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="AD121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="AE121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="AF121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="AG121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="AH121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="AI121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="AJ121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="AK121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="AL121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="AM121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="AN121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="AO121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="AP121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="AR121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
       <c r="AS121" t="n">
-        <v>1189132.8833831</v>
+        <v>1856357.95971313</v>
       </c>
     </row>
     <row r="122">
@@ -16331,112 +16331,112 @@
         <v>1</v>
       </c>
       <c r="J122" t="n">
-        <v>448866.885514886</v>
+        <v>666995.919873454</v>
       </c>
       <c r="K122" t="n">
-        <v>448866.885514886</v>
+        <v>701526.807424643</v>
       </c>
       <c r="L122" t="n">
-        <v>448866.885514886</v>
+        <v>686496.883267377</v>
       </c>
       <c r="M122" t="n">
-        <v>448866.885514886</v>
+        <v>657555.9337257229</v>
       </c>
       <c r="N122" t="n">
-        <v>448866.885514886</v>
+        <v>662103.061994134</v>
       </c>
       <c r="O122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="P122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="Q122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="R122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="S122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="T122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="U122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="V122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="W122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="X122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="Y122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="Z122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="AA122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="AB122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="AC122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="AD122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="AE122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="AF122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="AG122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="AH122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="AI122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="AJ122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="AK122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="AL122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="AM122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="AN122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="AO122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="AP122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="AQ122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="AR122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
       <c r="AS122" t="n">
-        <v>448866.885514886</v>
+        <v>744216.813740816</v>
       </c>
     </row>
     <row r="123">
@@ -16462,112 +16462,112 @@
         <v>1</v>
       </c>
       <c r="J123" t="n">
-        <v>53419.4936248918</v>
+        <v>54941.2121883728</v>
       </c>
       <c r="K123" t="n">
-        <v>53419.4936248918</v>
+        <v>53093.2683676233</v>
       </c>
       <c r="L123" t="n">
-        <v>53419.4936248918</v>
+        <v>63976.1966476071</v>
       </c>
       <c r="M123" t="n">
-        <v>53419.4936248918</v>
+        <v>63896.2459479891</v>
       </c>
       <c r="N123" t="n">
-        <v>53419.4936248918</v>
+        <v>63713.5599641706</v>
       </c>
       <c r="O123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="P123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="Q123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="R123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="S123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="T123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="U123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="V123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="W123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="X123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="Y123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="Z123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="AA123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="AB123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="AC123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="AD123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="AE123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="AF123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="AG123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="AH123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="AI123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="AJ123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="AK123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="AL123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="AM123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="AN123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="AO123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="AP123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="AQ123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="AR123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
       <c r="AS123" t="n">
-        <v>53419.4936248918</v>
+        <v>54560.2307310842</v>
       </c>
     </row>
     <row r="124">
@@ -16593,112 +16593,112 @@
         <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>953376.1414793039</v>
+        <v>541944.614572114</v>
       </c>
       <c r="K124" t="n">
-        <v>953376.1414793039</v>
+        <v>198434.72836643</v>
       </c>
       <c r="L124" t="n">
-        <v>953376.1414793039</v>
+        <v>30156.4588199198</v>
       </c>
       <c r="M124" t="n">
-        <v>953376.1414793039</v>
+        <v>79003.18347039149</v>
       </c>
       <c r="N124" t="n">
-        <v>953376.1414793039</v>
+        <v>33623.0519545342</v>
       </c>
       <c r="O124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="P124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="Q124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="R124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="S124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="T124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="U124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="V124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="W124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="X124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="Y124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="Z124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="AA124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="AB124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="AC124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="AD124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="AE124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="AF124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="AG124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="AH124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="AI124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="AJ124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="AK124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="AL124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="AM124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="AN124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="AO124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="AP124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="AQ124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="AR124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
       <c r="AS124" t="n">
-        <v>953376.1414793039</v>
+        <v>1680518.69428711</v>
       </c>
     </row>
     <row r="125">
@@ -16724,112 +16724,112 @@
         <v>1</v>
       </c>
       <c r="J125" t="n">
-        <v>15951232.6317812</v>
+        <v>15148014.1580466</v>
       </c>
       <c r="K125" t="n">
-        <v>15951232.6317812</v>
+        <v>14188436.0873369</v>
       </c>
       <c r="L125" t="n">
-        <v>15951232.6317812</v>
+        <v>15737110.8987555</v>
       </c>
       <c r="M125" t="n">
-        <v>15951232.6317812</v>
+        <v>16312913.3683497</v>
       </c>
       <c r="N125" t="n">
-        <v>15951232.6317812</v>
+        <v>15386969.0961747</v>
       </c>
       <c r="O125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="P125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="Q125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="R125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="S125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="T125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="U125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="V125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="W125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="X125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="Y125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="Z125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="AA125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="AB125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="AC125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="AD125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="AE125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="AF125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="AG125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="AH125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="AI125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="AJ125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="AK125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="AL125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="AM125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="AN125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="AO125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="AP125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="AQ125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="AR125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
       <c r="AS125" t="n">
-        <v>15951232.6317812</v>
+        <v>15173145.2959361</v>
       </c>
     </row>
     <row r="126">
@@ -16855,112 +16855,112 @@
         <v>1</v>
       </c>
       <c r="J126" t="n">
-        <v>411111566.732477</v>
+        <v>621248130.19436</v>
       </c>
       <c r="K126" t="n">
-        <v>411111566.732477</v>
+        <v>575182598.069436</v>
       </c>
       <c r="L126" t="n">
-        <v>411111566.732477</v>
+        <v>609647619.844452</v>
       </c>
       <c r="M126" t="n">
-        <v>411111566.732477</v>
+        <v>704499258.798245</v>
       </c>
       <c r="N126" t="n">
-        <v>411111566.732477</v>
+        <v>640165890.012265</v>
       </c>
       <c r="O126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="P126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="Q126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="R126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="S126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="T126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="U126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="V126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="W126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="X126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="Y126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="Z126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="AA126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="AB126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="AC126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="AD126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="AE126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="AF126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="AG126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="AH126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="AI126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="AJ126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="AK126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="AL126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="AM126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="AN126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="AO126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="AP126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="AQ126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="AR126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
       <c r="AS126" t="n">
-        <v>411111566.732477</v>
+        <v>552081782.950837</v>
       </c>
     </row>
     <row r="127">
@@ -16986,112 +16986,112 @@
         <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>1520140.22823048</v>
+        <v>1645090.46298176</v>
       </c>
       <c r="K127" t="n">
-        <v>1520140.22823048</v>
+        <v>1626059.46095</v>
       </c>
       <c r="L127" t="n">
-        <v>1520140.22823048</v>
+        <v>1789941.61780974</v>
       </c>
       <c r="M127" t="n">
-        <v>1520140.22823048</v>
+        <v>1777252.83119653</v>
       </c>
       <c r="N127" t="n">
-        <v>1520140.22823048</v>
+        <v>1639932.11785418</v>
       </c>
       <c r="O127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="P127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="Q127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="R127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="S127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="T127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="U127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="V127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="W127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="X127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="Y127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="Z127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="AA127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="AB127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="AC127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="AD127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="AE127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="AF127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="AG127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="AH127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="AI127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="AJ127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="AK127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="AL127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="AM127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="AN127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="AO127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="AP127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="AQ127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="AR127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
       <c r="AS127" t="n">
-        <v>1520140.22823048</v>
+        <v>1423204.71954948</v>
       </c>
     </row>
     <row r="128">
@@ -17117,112 +17117,112 @@
         <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>592513.087581214</v>
+        <v>768084.545396517</v>
       </c>
       <c r="K128" t="n">
-        <v>592513.087581214</v>
+        <v>780198.559288636</v>
       </c>
       <c r="L128" t="n">
-        <v>592513.087581214</v>
+        <v>859563.757594347</v>
       </c>
       <c r="M128" t="n">
-        <v>592513.087581214</v>
+        <v>873676.6166365671</v>
       </c>
       <c r="N128" t="n">
-        <v>592513.087581214</v>
+        <v>811725.367814465</v>
       </c>
       <c r="O128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="P128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="Q128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="R128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="S128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="T128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="U128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="V128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="W128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="X128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="Y128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="Z128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="AA128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="AB128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="AC128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="AD128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="AE128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="AF128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="AG128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="AH128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="AI128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="AJ128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="AK128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="AL128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="AM128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="AN128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="AO128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="AP128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="AQ128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="AR128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
       <c r="AS128" t="n">
-        <v>592513.087581214</v>
+        <v>752788.991693945</v>
       </c>
     </row>
     <row r="129">
@@ -18034,112 +18034,112 @@
         <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>41917.3698929504</v>
+        <v>54300.0884535744</v>
       </c>
       <c r="K135" t="n">
-        <v>41917.3698929504</v>
+        <v>51697.2081824835</v>
       </c>
       <c r="L135" t="n">
-        <v>41917.3698929504</v>
+        <v>54774.391044215</v>
       </c>
       <c r="M135" t="n">
-        <v>41917.3698929504</v>
+        <v>55271.6884172038</v>
       </c>
       <c r="N135" t="n">
-        <v>41917.3698929504</v>
+        <v>57856.7591592816</v>
       </c>
       <c r="O135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="P135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="Q135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="R135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="S135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="T135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="U135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="V135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="W135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="X135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="Y135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="Z135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="AA135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="AB135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="AC135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="AD135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="AE135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="AF135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="AG135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="AH135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="AI135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="AJ135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="AK135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="AL135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="AM135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="AN135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="AO135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="AP135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="AQ135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="AR135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
       <c r="AS135" t="n">
-        <v>41917.3698929504</v>
+        <v>52831.4601058142</v>
       </c>
     </row>
     <row r="136">
@@ -18165,112 +18165,112 @@
         <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>179727.203966016</v>
+        <v>251496.393331243</v>
       </c>
       <c r="K136" t="n">
-        <v>179727.203966016</v>
+        <v>270370.316735383</v>
       </c>
       <c r="L136" t="n">
-        <v>179727.203966016</v>
+        <v>312850.274586597</v>
       </c>
       <c r="M136" t="n">
-        <v>179727.203966016</v>
+        <v>297072.341067526</v>
       </c>
       <c r="N136" t="n">
-        <v>179727.203966016</v>
+        <v>252782.887970401</v>
       </c>
       <c r="O136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="P136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="Q136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="R136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="S136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="T136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="U136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="V136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="W136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="X136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="Y136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="Z136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="AA136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="AB136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="AC136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="AD136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="AE136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="AF136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="AG136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="AH136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="AI136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="AJ136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="AK136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="AL136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="AM136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="AN136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="AO136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="AP136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="AQ136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="AR136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
       <c r="AS136" t="n">
-        <v>179727.203966016</v>
+        <v>214809.803756734</v>
       </c>
     </row>
     <row r="137">
